--- a/less_age_data.xlsx
+++ b/less_age_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\Documents\373HWS\440 HIVE\CensusData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A599EDD1-576D-4F5D-98A0-6436248C6EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5565FB9F-CEA1-4BA3-83D4-5456DDD19E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14317" yWindow="0" windowWidth="14565" windowHeight="15563" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="2123" windowWidth="21600" windowHeight="11332" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="8">
   <si>
     <t>City</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Phoenix</t>
-  </si>
-  <si>
-    <t>Pheonix</t>
   </si>
 </sst>
 </file>
@@ -424,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="I171" sqref="I171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1885,7 +1882,7 @@
         <v>4</v>
       </c>
       <c r="B128">
-        <f t="shared" ref="B128:B137" si="2">B125+1</f>
+        <f t="shared" ref="B128:B131" si="2">B125+1</f>
         <v>2008</v>
       </c>
       <c r="C128">
@@ -2169,7 +2166,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B152">
         <v>1990</v>
@@ -2180,7 +2177,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B153">
         <f>B152+1</f>
@@ -2192,7 +2189,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B154">
         <f t="shared" ref="B154:B170" si="4">B153+1</f>
@@ -2204,7 +2201,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B155">
         <f t="shared" si="4"/>
@@ -2216,7 +2213,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B156">
         <f t="shared" si="4"/>
@@ -2228,7 +2225,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B157">
         <f t="shared" si="4"/>
@@ -2240,7 +2237,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B158">
         <f t="shared" si="4"/>
@@ -2252,7 +2249,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B159">
         <f t="shared" si="4"/>
@@ -2264,7 +2261,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B160">
         <f t="shared" si="4"/>
@@ -2276,7 +2273,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B161">
         <f t="shared" si="4"/>
@@ -2288,7 +2285,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B162">
         <f t="shared" si="4"/>
@@ -2300,7 +2297,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B163">
         <f t="shared" si="4"/>
@@ -2312,7 +2309,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B164">
         <f t="shared" si="4"/>
@@ -2324,7 +2321,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B165">
         <f t="shared" si="4"/>
@@ -2336,7 +2333,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B166">
         <f>B165+1</f>
@@ -2348,7 +2345,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B167">
         <f t="shared" si="4"/>
@@ -2360,7 +2357,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B168">
         <f t="shared" si="4"/>
@@ -2372,7 +2369,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B169">
         <f t="shared" si="4"/>
@@ -2384,7 +2381,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B170">
         <f t="shared" si="4"/>
@@ -2396,7 +2393,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B171">
         <f>B170+1</f>
